--- a/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
+++ b/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Dropbox\Thanzi la Onse\04 - Methods Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C211DD9-A7B6-4776-ABF6-7CB41EC24D56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC77B4A9-7386-4F6C-8DD4-18CCEDFB4B9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="152">
   <si>
     <t>Name:</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>[0.8,0.85,0.9,0.95,0.98,0.9]</t>
+  </si>
+  <si>
+    <t>sensitivity_of_endoscopy_for oes_cancer_with_dysphagia</t>
   </si>
 </sst>
 </file>
@@ -3450,17 +3453,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="60.5" customWidth="1"/>
     <col min="2" max="2" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
@@ -3763,6 +3766,14 @@
       </c>
       <c r="B36" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
+++ b/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Dropbox\Thanzi la Onse\04 - Methods Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC77B4A9-7386-4F6C-8DD4-18CCEDFB4B9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD62A77-0AA7-414A-A111-21A5CDAAB24A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,7 +507,7 @@
     <t>[0.8,0.85,0.9,0.95,0.98,0.9]</t>
   </si>
   <si>
-    <t>sensitivity_of_endoscopy_for oes_cancer_with_dysphagia</t>
+    <t>sensitivity_of_endoscopy_for_oes_cancer_with_dysphagia</t>
   </si>
 </sst>
 </file>
@@ -3456,7 +3456,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
+++ b/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Dropbox\Thanzi la Onse\04 - Methods Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD62A77-0AA7-414A-A111-21A5CDAAB24A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913FC442-6A68-43B5-A5BD-0283E3584E5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
+++ b/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Dropbox\Thanzi la Onse\04 - Methods Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913FC442-6A68-43B5-A5BD-0283E3584E5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B1E9DC-B97A-4F0B-BD32-4CCCE2F82A86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="153">
   <si>
     <t>Name:</t>
   </si>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>sensitivity_of_endoscopy_for_oes_cancer_with_dysphagia</t>
+  </si>
+  <si>
+    <t>prob_present_dysphagia</t>
   </si>
 </sst>
 </file>
@@ -3453,10 +3456,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3774,6 +3777,14 @@
       </c>
       <c r="B37">
         <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
+++ b/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Dropbox\Thanzi la Onse\04 - Methods Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B1E9DC-B97A-4F0B-BD32-4CCCE2F82A86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD07B39-C6FC-4E4D-A7B5-651CC58481BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,9 +517,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -704,43 +711,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -753,8 +760,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -763,17 +770,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3458,8 +3466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3494,6 +3502,9 @@
       <c r="B2">
         <v>0.5</v>
       </c>
+      <c r="C2" s="33">
+        <v>4.9999999999999998E-7</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
@@ -3535,6 +3546,9 @@
         <v>135</v>
       </c>
       <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
         <v>0.03</v>
       </c>
       <c r="I7" s="14"/>
@@ -3544,6 +3558,9 @@
         <v>107</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>0.1</v>
       </c>
     </row>
@@ -3552,6 +3569,9 @@
         <v>134</v>
       </c>
       <c r="B9">
+        <v>0.5</v>
+      </c>
+      <c r="C9">
         <v>0.01</v>
       </c>
     </row>
@@ -3560,6 +3580,9 @@
         <v>108</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
         <v>0.1</v>
       </c>
     </row>
@@ -3568,6 +3591,9 @@
         <v>101</v>
       </c>
       <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
         <v>0.05</v>
       </c>
     </row>
@@ -3576,6 +3602,9 @@
         <v>109</v>
       </c>
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>0.1</v>
       </c>
     </row>
@@ -3584,6 +3613,9 @@
         <v>102</v>
       </c>
       <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
         <v>0.05</v>
       </c>
     </row>
@@ -3592,6 +3624,9 @@
         <v>110</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>0.1</v>
       </c>
     </row>
@@ -3600,6 +3635,9 @@
         <v>103</v>
       </c>
       <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
         <v>0.05</v>
       </c>
     </row>
@@ -3611,7 +3649,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
         <v>132</v>
       </c>
@@ -3619,7 +3657,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
         <v>104</v>
       </c>
@@ -3627,7 +3665,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
         <v>45</v>
       </c>
@@ -3635,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
         <v>66</v>
       </c>
@@ -3643,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
         <v>67</v>
       </c>
@@ -3651,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>68</v>
       </c>
@@ -3659,15 +3697,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>142</v>
       </c>
       <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
         <v>143</v>
       </c>
@@ -3675,7 +3716,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>144</v>
       </c>
@@ -3683,7 +3724,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
         <v>145</v>
       </c>
@@ -3691,7 +3732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>146</v>
       </c>
@@ -3699,7 +3740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
         <v>147</v>
       </c>
@@ -3707,7 +3748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>106</v>
       </c>
@@ -3715,7 +3756,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>91</v>
       </c>
@@ -3723,7 +3764,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
         <v>88</v>
       </c>
@@ -3731,7 +3772,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>113</v>
       </c>

--- a/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
+++ b/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Dropbox\Thanzi la Onse\04 - Methods Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD07B39-C6FC-4E4D-A7B5-651CC58481BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE299F-F29E-4D82-B6A1-B9F607A2484E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3466,8 +3466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3558,9 +3558,6 @@
         <v>107</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
         <v>0.1</v>
       </c>
     </row>
@@ -3580,9 +3577,6 @@
         <v>108</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
         <v>0.1</v>
       </c>
     </row>
@@ -3602,9 +3596,6 @@
         <v>109</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
         <v>0.1</v>
       </c>
     </row>
@@ -3624,9 +3615,6 @@
         <v>110</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
         <v>0.1</v>
       </c>
     </row>

--- a/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
+++ b/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\Dropbox\Thanzi la Onse\04 - Methods Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\PycharmProjects\TLOmodel\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE299F-F29E-4D82-B6A1-B9F607A2484E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04F3618-FCA6-41AF-9A65-EE70DC34DA93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="153">
   <si>
     <t>Name:</t>
   </si>
@@ -3464,10 +3464,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3647,172 +3647,132 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18">
         <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B23">
-        <v>0.2</v>
-      </c>
-      <c r="C23">
-        <v>0.01</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24">
-        <v>0.01</v>
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="B25">
-        <v>0.01</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="B27">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30">
-        <v>1.3</v>
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31">
-        <v>1.1000000000000001</v>
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="32" t="s">
-        <v>113</v>
+      <c r="A32" t="s">
+        <v>151</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="32" t="s">
-        <v>112</v>
+      <c r="A33" t="s">
+        <v>152</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>152</v>
-      </c>
-      <c r="B38">
         <v>0.8</v>
       </c>
     </row>

--- a/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
+++ b/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\PycharmProjects\TLOmodel\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04F3618-FCA6-41AF-9A65-EE70DC34DA93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117800FC-5851-42D7-B462-F8843EA7D137}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="154">
   <si>
     <t>Name:</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>prob_present_dysphagia</t>
+  </si>
+  <si>
+    <t>rate_palliative_care_stage4</t>
   </si>
 </sst>
 </file>
@@ -3464,10 +3467,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3690,89 +3693,97 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" t="s">
-        <v>139</v>
+        <v>147</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25">
-        <v>1.3</v>
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B26">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" t="s">
-        <v>140</v>
+        <v>112</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>152</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>0.8</v>
       </c>
     </row>

--- a/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
+++ b/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\PycharmProjects\TLOmodel\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117800FC-5851-42D7-B462-F8843EA7D137}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A33D15-4B42-4BBF-ACA4-CA7B1D6528C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="155">
   <si>
     <t>Name:</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>rate_palliative_care_stage4</t>
+  </si>
+  <si>
+    <t>init_prob_palliative_care</t>
   </si>
 </sst>
 </file>
@@ -3467,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3765,25 +3768,33 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>152</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>0.8</v>
       </c>
     </row>

--- a/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
+++ b/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\PycharmProjects\TLOmodel\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14986C5E-0D37-44FD-AB8E-631DC03DB486}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A9A87DB-54A4-4D73-91E1-89EFEADA7497}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1324,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
+++ b/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\PycharmProjects\TLOmodel\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A9A87DB-54A4-4D73-91E1-89EFEADA7497}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C31A2D-E45C-4C8C-A735-B6C560077F6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1358,9 +1358,11 @@
         <v>29</v>
       </c>
       <c r="B2" s="22">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22">
         <v>4.9999999999999998E-7</v>
       </c>
-      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
@@ -1402,6 +1404,9 @@
         <v>52</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>0.03</v>
       </c>
       <c r="I7" s="14"/>
@@ -1419,6 +1424,9 @@
         <v>51</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>0.01</v>
       </c>
     </row>
@@ -1435,6 +1443,9 @@
         <v>30</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>0.05</v>
       </c>
     </row>
@@ -1451,6 +1462,9 @@
         <v>31</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>0.05</v>
       </c>
     </row>

--- a/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
+++ b/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\PycharmProjects\TLOmodel\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C31A2D-E45C-4C8C-A735-B6C560077F6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8E3BC7-327B-4F49-912C-98FCB19E6430}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1358,11 +1358,9 @@
         <v>29</v>
       </c>
       <c r="B2" s="22">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22">
         <v>4.9999999999999998E-7</v>
       </c>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
@@ -1404,9 +1402,6 @@
         <v>52</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
         <v>0.03</v>
       </c>
       <c r="I7" s="14"/>
@@ -1424,9 +1419,6 @@
         <v>51</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
         <v>0.01</v>
       </c>
     </row>
@@ -1443,9 +1435,6 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
         <v>0.05</v>
       </c>
     </row>
@@ -1462,9 +1451,6 @@
         <v>31</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
         <v>0.05</v>
       </c>
     </row>

--- a/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
+++ b/resources/ResourceFile_Oesophageal_Cancer_mar20_ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\PycharmProjects\TLOmodel\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8E3BC7-327B-4F49-912C-98FCB19E6430}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351DE081-E7D6-4A34-B6E0-A0CCA4DFB3DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1324,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
